--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\新建文件夹\HelpMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB590259-0397-419D-A4AE-E89F7A4847F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACCED6D-08CA-4FFA-B6E9-7318D13DC8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3236,6 +3236,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-2BB4-41E7-A40B-2FCF7ADAE87E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -3244,304 +3249,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.07</c:v>
+                  <c:v>23.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.06</c:v>
+                  <c:v>3.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>12.12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.09</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.15</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.119999999999999</c:v>
+                  <c:v>8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.11</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.14</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>13.08</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15.12</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.24</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.100000000000001</c:v>
+                  <c:v>17.22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.08</c:v>
+                  <c:v>15.11</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.44</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.63</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.01</c:v>
+                  <c:v>16.45</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.7</c:v>
+                  <c:v>11.66</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.46</c:v>
+                  <c:v>17.95</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14.23</c:v>
+                  <c:v>14.85</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.23</c:v>
+                  <c:v>9.64</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>11.71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.86</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.37</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.63</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.61</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>9.56</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>15.01</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17.36</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15.39</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.8800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10.93</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.39</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.16</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>17.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>16.48</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.39</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>16.54</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10.19</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10.24</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17.77</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>14.02</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15.11</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.16</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13.34</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.73</c:v>
+                  <c:v>9.15</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.81</c:v>
+                  <c:v>9.6300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.48</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>11.99</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>10.86</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9.9700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>14.82</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8.1</c:v>
-                </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.76</c:v>
+                  <c:v>12.87</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.13</c:v>
+                  <c:v>12.48</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11.88</c:v>
+                  <c:v>12.67</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>17.88</c:v>
+                  <c:v>11.63</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.53</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.33</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>15.91</c:v>
+                  <c:v>8.1300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.75</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.82</c:v>
+                  <c:v>17.59</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15.03</c:v>
+                  <c:v>9.09</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.75</c:v>
+                  <c:v>16.66</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>16.91</c:v>
+                  <c:v>9.4700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>15.3</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.98</c:v>
+                  <c:v>16.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.02</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.17</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12.13</c:v>
+                  <c:v>9.43</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.34</c:v>
+                  <c:v>12.05</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>15.66</c:v>
+                  <c:v>17.190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.16</c:v>
+                  <c:v>9.59</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.99</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.2</c:v>
+                  <c:v>12.16</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.3800000000000008</c:v>
+                  <c:v>10.28</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>11.48</c:v>
+                  <c:v>10.77</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11.25</c:v>
+                  <c:v>13.88</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12.38</c:v>
+                  <c:v>16.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>17.88</c:v>
+                  <c:v>10.119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.0299999999999994</c:v>
+                  <c:v>17.22</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.49</c:v>
+                  <c:v>13.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,304 +3558,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>6.02</c:v>
+                  <c:v>4.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.29</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>9.0500000000000007</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="26">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>9.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="34">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.79</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.82</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.82</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>10.039999999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>43.28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>46.48</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.09</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.09</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.09</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>47.14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.07</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.09</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.07</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.05</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.25</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.0299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.72</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.36</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.72</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>18.86</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.6899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.38</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.38</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>13.26</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.54</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>20.72</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>14.64</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18.97</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.2200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.52</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11.29</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.19</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7.09</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16.14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.43</c:v>
-                </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>20.46</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.8100000000000005</c:v>
+                  <c:v>14.77</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>13.68</c:v>
+                  <c:v>14.01</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.6899999999999995</c:v>
+                  <c:v>14.74</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.29</c:v>
+                  <c:v>15.27</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.41</c:v>
+                  <c:v>18.64</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.9399999999999995</c:v>
+                  <c:v>15.22</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20.74</c:v>
+                  <c:v>14.63</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20.39</c:v>
+                  <c:v>16.18</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>13.61</c:v>
+                  <c:v>14.67</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.53</c:v>
+                  <c:v>14.48</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.4600000000000009</c:v>
+                  <c:v>10.220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.46</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>15.7</c:v>
+                  <c:v>5.49</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.93</c:v>
+                  <c:v>8.58</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>18.61</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>20.79</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.5299999999999994</c:v>
+                  <c:v>7.54</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.93</c:v>
+                  <c:v>11.14</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>11.01</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14.43</c:v>
+                  <c:v>20.47</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>17.22</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.85</c:v>
+                  <c:v>5.91</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.68</c:v>
+                  <c:v>10.57</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>13.86</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.8</c:v>
+                  <c:v>8.92</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.6899999999999995</c:v>
+                  <c:v>20.54</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.51</c:v>
+                  <c:v>9.17</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.64</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.42</c:v>
+                  <c:v>13.77</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16.309999999999999</c:v>
+                  <c:v>16.64</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.21</c:v>
+                  <c:v>10.16</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>11.87</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10.28</c:v>
+                  <c:v>9.66</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>13.45</c:v>
+                  <c:v>11.18</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15.6</c:v>
+                  <c:v>14.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4672,154 +4677,154 @@
                   <c:v>6.95</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.75</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.52</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17.809999999999999</c:v>
+                  <c:v>13.809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.55</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.51</c:v>
+                  <c:v>3.51</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.17</c:v>
+                  <c:v>4.17</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13.01</c:v>
+                  <c:v>9.01</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14.32</c:v>
+                  <c:v>10.32</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.44</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>15.24</c:v>
+                  <c:v>11.24</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.6300000000000008</c:v>
+                  <c:v>5.6300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15.9</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.97</c:v>
+                  <c:v>8.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.42</c:v>
+                  <c:v>10.42</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.51</c:v>
+                  <c:v>8.51</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13.06</c:v>
+                  <c:v>9.06</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12.74</c:v>
+                  <c:v>8.74</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>19.95</c:v>
+                  <c:v>15.95</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.82</c:v>
+                  <c:v>4.82</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>17.760000000000002</c:v>
+                  <c:v>13.760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.86</c:v>
+                  <c:v>4.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.62</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.02</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.01</c:v>
+                  <c:v>11.01</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.3</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16.190000000000001</c:v>
+                  <c:v>12.190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19.29</c:v>
+                  <c:v>15.29</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.18</c:v>
+                  <c:v>15.18</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>15.08</c:v>
+                  <c:v>11.08</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18.170000000000002</c:v>
+                  <c:v>14.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.93</c:v>
+                  <c:v>3.93</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.1</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>5.12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>16.989999999999998</c:v>
+                  <c:v>12.989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.2</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.39</c:v>
+                  <c:v>6.3900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.34</c:v>
+                  <c:v>6.34</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.92</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.61</c:v>
+                  <c:v>5.6099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.59</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.16</c:v>
+                  <c:v>6.16</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.09</c:v>
+                  <c:v>4.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.82</c:v>
+                  <c:v>4.82</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>15.88</c:v>
+                  <c:v>11.88</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.86</c:v>
+                  <c:v>8.86</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.83</c:v>
+                  <c:v>4.83</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19.22</c:v>
+                  <c:v>15.219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.35</c:v>
+                  <c:v>11.35</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>5.33</c:v>
@@ -4834,7 +4839,7 @@
                   <c:v>15.32</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>18.84</c:v>
+                  <c:v>12.84</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>29.85</c:v>
@@ -4843,10 +4848,10 @@
                   <c:v>20.36</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>31.93</c:v>
+                  <c:v>23.93</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.9582000000000015</c:v>
+                  <c:v>7.9712000000000023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,6 +4999,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10874,301 +10880,301 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,25)/100+RANDBETWEEN(1,25)</f>
-        <v>1.07</v>
+        <v>23.09</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>6.02</v>
+        <f t="shared" ref="B2:B12" ca="1" si="0">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
+        <v>4.09</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,25)/100+RANDBETWEEN(1,25)</f>
-        <v>8.06</v>
+        <v>3.19</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>8.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.08</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1,25)/100+RANDBETWEEN(1,25)</f>
+        <v>20.23</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A28" ca="1" si="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
+        <v>13.14</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.15</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.11</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.15</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.12</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.09</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.08</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.09</v>
+      </c>
+      <c r="B13" s="2">
+        <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
+        <v>40.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.09</v>
+      </c>
+      <c r="B14" s="2">
+        <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.11</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:B22" ca="1" si="2">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.14</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.13</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.14</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.13</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.08</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" ca="1" si="1"/>
         <v>12.12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="B23" s="2">
+        <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.07</v>
+      </c>
+      <c r="B24" s="2">
+        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.08</v>
+      </c>
+      <c r="B25" s="2">
+        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.11</v>
+      </c>
+      <c r="B26" s="2">
+        <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
+        <v>43.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.14</v>
+      </c>
+      <c r="B27" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>9.07</v>
-      </c>
-      <c r="B5" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>7.12</v>
-      </c>
-      <c r="B6" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>7.08</v>
-      </c>
-      <c r="B7" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>7.08</v>
-      </c>
-      <c r="B8" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>9.14</v>
-      </c>
-      <c r="B9" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>14.1</v>
-      </c>
-      <c r="B10" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>9.09</v>
-      </c>
-      <c r="B11" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>9.0399999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>14.09</v>
-      </c>
-      <c r="B12" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>10.039999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>9.1</v>
-      </c>
-      <c r="B13" s="2">
-        <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
-        <v>43.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>8.11</v>
-      </c>
-      <c r="B14" s="2">
-        <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
-        <v>46.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>11.12</v>
-      </c>
-      <c r="B15" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>10.119999999999999</v>
-      </c>
-      <c r="B16" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>10.14</v>
-      </c>
-      <c r="B17" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>10.119999999999999</v>
-      </c>
-      <c r="B18" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>7.13</v>
-      </c>
-      <c r="B19" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>8.09</v>
-      </c>
-      <c r="B20" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>12.08</v>
-      </c>
-      <c r="B21" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>14.15</v>
-      </c>
-      <c r="B22" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>10.119999999999999</v>
-      </c>
-      <c r="B23" s="2">
-        <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
-        <v>47.14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>8.11</v>
-      </c>
-      <c r="B24" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>13.08</v>
-      </c>
-      <c r="B25" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>9.0399999999999991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>12.1</v>
-      </c>
-      <c r="B26" s="2">
-        <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
-        <v>40.090000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>9.11</v>
-      </c>
-      <c r="B27" s="2">
-        <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>9.02</v>
-      </c>
-    </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>15.12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13.08</v>
       </c>
       <c r="B28" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>9.07</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <f ca="1">RANDBETWEEN(1,25)/100+RANDBETWEEN(1,25)</f>
-        <v>23.24</v>
+        <v>13.08</v>
       </c>
       <c r="B29" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>6.08</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <f ca="1">RANDBETWEEN(1,25)/100+RANDBETWEEN(1,25)</f>
-        <v>16.100000000000001</v>
+        <v>17.22</v>
       </c>
       <c r="B30" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>8.0500000000000007</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <f ca="1">RANDBETWEEN(7,15)/100+RANDBETWEEN(7,15)</f>
-        <v>8.08</v>
+        <v>15.11</v>
       </c>
       <c r="B31" s="2">
         <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
-        <v>2.08</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11178,87 +11184,87 @@
       </c>
       <c r="B32" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>7.09</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" ref="A33:A96" ca="1" si="0">RANDBETWEEN(0,100)/100+RANDBETWEEN(8,17)</f>
-        <v>15.44</v>
+        <f t="shared" ref="A33:A96" ca="1" si="3">RANDBETWEEN(0,100)/100+RANDBETWEEN(8,17)</f>
+        <v>9.98</v>
       </c>
       <c r="B33" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>4.07</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.63</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13.4</v>
       </c>
       <c r="B34" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>5.0199999999999996</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.01</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16.45</v>
       </c>
       <c r="B35" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>7.05</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.66</v>
       </c>
       <c r="B36" s="2">
         <f ca="1">RANDBETWEEN(1,50)/100+RANDBETWEEN(1,50)</f>
-        <v>28.25</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13.2</v>
       </c>
       <c r="B37" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>9.0399999999999991</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.46</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.95</v>
       </c>
       <c r="B38" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>2.04</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.23</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.85</v>
       </c>
       <c r="B39" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>8.0299999999999994</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.23</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.64</v>
       </c>
       <c r="B40" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>3.09</v>
+        <v>7.04</v>
       </c>
       <c r="H40">
         <v>8.02</v>
@@ -11266,12 +11272,12 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.56</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.71</v>
       </c>
       <c r="B41" s="2">
         <f ca="1">RANDBETWEEN(2,10)/100+RANDBETWEEN(2,10)</f>
-        <v>4.0999999999999996</v>
+        <v>6.09</v>
       </c>
       <c r="H41">
         <v>8.44</v>
@@ -11279,12 +11285,12 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.01</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.32</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" ref="B42:B100" ca="1" si="1">RANDBETWEEN(0,100)/100+RANDBETWEEN(5,20)</f>
-        <v>5.5</v>
+        <f t="shared" ref="B42:B100" ca="1" si="4">RANDBETWEEN(0,100)/100+RANDBETWEEN(5,20)</f>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H42">
         <v>8.5299999999999994</v>
@@ -11292,12 +11298,12 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10.98</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.72</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.920000000000002</v>
       </c>
       <c r="H43">
         <v>8.58</v>
@@ -11305,12 +11311,12 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.36</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.51</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.36</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.79</v>
       </c>
       <c r="H44">
         <v>8.7799999999999994</v>
@@ -11318,12 +11324,12 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.55</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13.63</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.72</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.13</v>
       </c>
       <c r="H45">
         <v>8.83</v>
@@ -11331,12 +11337,12 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.74</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.02</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.86</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.32</v>
       </c>
       <c r="H46">
         <v>8.8699999999999992</v>
@@ -11344,12 +11350,12 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.44</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.03</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.18</v>
       </c>
       <c r="H47">
         <v>9.3800000000000008</v>
@@ -11357,12 +11363,12 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8800000000000008</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.22</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6899999999999995</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13.39</v>
       </c>
       <c r="H48">
         <v>9.59</v>
@@ -11373,12 +11379,12 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.93</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.7</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.38</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.72</v>
       </c>
       <c r="H49">
         <v>9.6</v>
@@ -11389,12 +11395,12 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16.86</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.38</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19.309999999999999</v>
       </c>
       <c r="H50">
         <v>9.84</v>
@@ -11405,12 +11411,12 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.68</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.24</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.26</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.52</v>
       </c>
       <c r="H51">
         <v>10.119999999999999</v>
@@ -11421,12 +11427,12 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.37</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.54</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.82</v>
       </c>
       <c r="H52">
         <v>10.199999999999999</v>
@@ -11437,12 +11443,12 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.16</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.63</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.72</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19.47</v>
       </c>
       <c r="H53">
         <v>10.24</v>
@@ -11453,12 +11459,12 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.420000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15.42</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.64</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="H54">
         <v>10.4</v>
@@ -11469,12 +11475,12 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.61</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.47</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.6</v>
       </c>
       <c r="H55">
         <v>10.4</v>
@@ -11485,12 +11491,12 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.03</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.97</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19.12</v>
       </c>
       <c r="H56">
         <v>10.42</v>
@@ -11501,12 +11507,12 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.54</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.13</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.2200000000000006</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.309999999999999</v>
       </c>
       <c r="H57">
         <v>10.44</v>
@@ -11517,12 +11523,12 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.19</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16.45</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.2799999999999994</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13.27</v>
       </c>
       <c r="H58">
         <v>10.44</v>
@@ -11533,12 +11539,12 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.24</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.98</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.52</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.13</v>
       </c>
       <c r="H59">
         <v>10.48</v>
@@ -11549,12 +11555,12 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.77</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.18</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.29</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.55</v>
       </c>
       <c r="H60">
         <v>10.61</v>
@@ -11565,12 +11571,12 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.02</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16.03</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.19</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.51</v>
       </c>
       <c r="H61">
         <v>10.69</v>
@@ -11581,12 +11587,12 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.11</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.92</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.09</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.36</v>
       </c>
       <c r="H62">
         <v>10.77</v>
@@ -11597,12 +11603,12 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.16</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.98</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.82</v>
       </c>
       <c r="H63">
         <v>10.81</v>
@@ -11613,12 +11619,12 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.34</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.260000000000002</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.46</v>
       </c>
       <c r="H64">
         <v>11.14</v>
@@ -11629,12 +11635,12 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.399999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.56</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.43</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.039999999999999</v>
       </c>
       <c r="H65">
         <v>11.56</v>
@@ -11645,12 +11651,12 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.15</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>17.600000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.46</v>
       </c>
       <c r="H66">
         <v>11.63</v>
@@ -11661,12 +11667,12 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.81</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.6300000000000008</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8100000000000005</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.77</v>
       </c>
       <c r="H67">
         <v>11.76</v>
@@ -11677,12 +11683,12 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.99</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.7200000000000006</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.68</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.01</v>
       </c>
       <c r="H68">
         <v>12.17</v>
@@ -11693,12 +11699,12 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.86</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15.35</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6899999999999995</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.74</v>
       </c>
       <c r="H69">
         <v>12.21</v>
@@ -11709,12 +11715,12 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9700000000000006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13.48</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.29</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.27</v>
       </c>
       <c r="H70">
         <v>12.81</v>
@@ -11725,12 +11731,12 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.82</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13.44</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.41</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.64</v>
       </c>
       <c r="H71">
         <v>12.88</v>
@@ -11741,12 +11747,12 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.99</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.9399999999999995</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.22</v>
       </c>
       <c r="H72">
         <v>12.98</v>
@@ -11757,12 +11763,12 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.76</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.87</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.74</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.63</v>
       </c>
       <c r="H73">
         <v>13</v>
@@ -11773,12 +11779,12 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.48</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.39</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.18</v>
       </c>
       <c r="H74">
         <v>13.01</v>
@@ -11789,12 +11795,12 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.88</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.67</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.61</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.67</v>
       </c>
       <c r="H75">
         <v>13.07</v>
@@ -11805,12 +11811,12 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.88</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.63</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.53</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.48</v>
       </c>
       <c r="H76">
         <v>13.41</v>
@@ -11821,12 +11827,12 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.53</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.68</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4600000000000009</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.220000000000001</v>
       </c>
       <c r="H77">
         <v>13.53</v>
@@ -11837,12 +11843,12 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.33</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.46</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13.7</v>
       </c>
       <c r="H78">
         <v>13.57</v>
@@ -11853,12 +11859,12 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.91</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1300000000000008</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.49</v>
       </c>
       <c r="H79">
         <v>13.63</v>
@@ -11869,12 +11875,12 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.75</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.93</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.58</v>
       </c>
       <c r="H80">
         <v>13.7</v>
@@ -11885,12 +11891,12 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.82</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.59</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.170000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.61</v>
       </c>
       <c r="H81">
         <v>13.72</v>
@@ -11901,11 +11907,11 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.03</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.09</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>20.79</v>
       </c>
       <c r="H82">
@@ -11917,12 +11923,12 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.75</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16.66</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5299999999999994</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.54</v>
       </c>
       <c r="H83">
         <v>14.1</v>
@@ -11933,12 +11939,12 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.91</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4700000000000006</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.93</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.14</v>
       </c>
       <c r="H84">
         <v>14.39</v>
@@ -11949,12 +11955,12 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.92</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.01</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.6</v>
       </c>
       <c r="H85">
         <v>14.48</v>
@@ -11965,12 +11971,12 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.98</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16.420000000000002</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.43</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.47</v>
       </c>
       <c r="H86">
         <v>14.82</v>
@@ -11981,12 +11987,12 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.02</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>17.22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.18</v>
       </c>
       <c r="H87">
         <v>15.06</v>
@@ -11997,12 +12003,12 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.17</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.39</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.85</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.91</v>
       </c>
       <c r="H88">
         <v>15.09</v>
@@ -12013,12 +12019,12 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.43</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.68</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.57</v>
       </c>
       <c r="H89">
         <v>15.15</v>
@@ -12029,12 +12035,12 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.34</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.05</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.0299999999999994</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13.86</v>
       </c>
       <c r="H90">
         <v>15.21</v>
@@ -12045,12 +12051,12 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.66</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.190000000000001</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.92</v>
       </c>
       <c r="H91">
         <v>15.44</v>
@@ -12061,12 +12067,12 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.16</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.59</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6899999999999995</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.54</v>
       </c>
       <c r="H92">
         <v>15.54</v>
@@ -12077,12 +12083,12 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.99</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10.44</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.51</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.17</v>
       </c>
       <c r="H93">
         <v>15.68</v>
@@ -12093,12 +12099,12 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.16</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.64</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.83</v>
       </c>
       <c r="H94">
         <v>15.68</v>
@@ -12109,12 +12115,12 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3800000000000008</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10.28</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.42</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13.77</v>
       </c>
       <c r="H95">
         <v>15.71</v>
@@ -12125,12 +12131,12 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10.77</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.309999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.64</v>
       </c>
       <c r="H96">
         <v>15.74</v>
@@ -12141,12 +12147,12 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" ref="A97:A100" ca="1" si="2">RANDBETWEEN(0,100)/100+RANDBETWEEN(8,17)</f>
-        <v>11.25</v>
+        <f t="shared" ref="A97:A100" ca="1" si="5">RANDBETWEEN(0,100)/100+RANDBETWEEN(8,17)</f>
+        <v>13.88</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.16</v>
       </c>
       <c r="H97">
         <v>15.86</v>
@@ -12157,12 +12163,12 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.38</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16.309999999999999</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.87</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17.8</v>
       </c>
       <c r="H98">
         <v>15.87</v>
@@ -12173,12 +12179,12 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.88</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.119999999999999</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.28</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.66</v>
       </c>
       <c r="H99">
         <v>16.059999999999999</v>
@@ -12189,12 +12195,12 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.0299999999999994</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17.22</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.45</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.18</v>
       </c>
       <c r="H100">
         <v>16.149999999999999</v>
@@ -12206,11 +12212,11 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <f ca="1">RANDBETWEEN(0,100)/100+RANDBETWEEN(8,17)</f>
-        <v>8.49</v>
+        <v>13.06</v>
       </c>
       <c r="B101" s="2">
         <f ca="1">RANDBETWEEN(0,100)/100+RANDBETWEEN(5,20)</f>
-        <v>15.6</v>
+        <v>14.29</v>
       </c>
       <c r="H101">
         <v>17.04</v>
@@ -12284,15 +12290,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87AC1D4-22D1-4F02-95E8-DDE88C800C61}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -12300,810 +12306,1606 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4.0599999999999996</v>
       </c>
       <c r="B2">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>B2-1.5</f>
+        <v>0.54999999999999982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4.0999999999999996</v>
       </c>
       <c r="B3">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3-1.5</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.01</v>
       </c>
       <c r="B4">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.09</v>
       </c>
       <c r="B5">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7.07</v>
       </c>
       <c r="B6">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.5299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7.07</v>
       </c>
       <c r="B7">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7.08</v>
       </c>
       <c r="B8">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7.08</v>
       </c>
       <c r="B9">
         <v>20.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7.09</v>
       </c>
       <c r="B10">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.5699999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7.1</v>
       </c>
       <c r="B11">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.5899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7.12</v>
       </c>
       <c r="B12">
         <v>4.0199999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.5199999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7.14</v>
       </c>
       <c r="B13">
         <v>4.0199999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.5199999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7.14</v>
       </c>
       <c r="B14">
         <v>4.0599999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.5599999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8.02</v>
       </c>
       <c r="B15">
         <v>4.0599999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2.5599999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8.44</v>
       </c>
       <c r="B16">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2.5700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8.5299999999999994</v>
       </c>
       <c r="B17">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.5700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8.58</v>
       </c>
       <c r="B18">
         <v>4.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8.7799999999999994</v>
       </c>
       <c r="B19">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8.83</v>
       </c>
       <c r="B20">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8.8699999999999992</v>
       </c>
       <c r="B21">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9.3800000000000008</v>
       </c>
       <c r="B22">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.6799999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9.59</v>
       </c>
       <c r="B23">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3.5300000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9.6</v>
       </c>
       <c r="B24">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9.84</v>
       </c>
       <c r="B25">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10.119999999999999</v>
       </c>
       <c r="B26">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3.5599999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10.199999999999999</v>
       </c>
       <c r="B27">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3.5599999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10.24</v>
       </c>
       <c r="B28">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.5599999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10.4</v>
       </c>
       <c r="B29">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3.5700000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10.4</v>
       </c>
       <c r="B30">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10.42</v>
       </c>
       <c r="B31">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10.44</v>
       </c>
       <c r="B32">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10.44</v>
       </c>
       <c r="B33">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10.48</v>
       </c>
       <c r="B34">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10.61</v>
       </c>
       <c r="B35">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3.9800000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10.69</v>
       </c>
       <c r="B36">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10.77</v>
       </c>
       <c r="B37">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10.81</v>
       </c>
       <c r="B38">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>11.14</v>
       </c>
       <c r="B39">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>11.56</v>
       </c>
       <c r="B40">
         <v>6.04</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>11.63</v>
       </c>
       <c r="B41">
         <v>6.04</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>11.76</v>
       </c>
       <c r="B42">
         <v>8.9600000000000009</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>7.4600000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>12.17</v>
       </c>
       <c r="B43">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>12.21</v>
       </c>
       <c r="B44">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.75</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>12.81</v>
       </c>
       <c r="B45">
-        <v>15.52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.52</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>12.88</v>
       </c>
       <c r="B46">
-        <v>17.809999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.809999999999999</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>12.309999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>12.98</v>
       </c>
       <c r="B47">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.55</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>13</v>
       </c>
       <c r="B48">
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.51</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>13.01</v>
       </c>
       <c r="B49">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.17</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>13.07</v>
       </c>
       <c r="B50">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>13.41</v>
       </c>
       <c r="B51">
-        <v>13.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.01</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>13.53</v>
       </c>
       <c r="B52">
-        <v>14.32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.32</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>13.57</v>
       </c>
       <c r="B53">
-        <v>15.44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.44</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13.63</v>
       </c>
       <c r="B54">
-        <v>15.24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.24</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13.7</v>
       </c>
       <c r="B55">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.6300000000000008</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>4.1300000000000008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13.72</v>
       </c>
       <c r="B56">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.9</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>13.85</v>
       </c>
       <c r="B57">
-        <v>12.97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>7.4700000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14.1</v>
       </c>
       <c r="B58">
-        <v>14.42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.42</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>14.39</v>
       </c>
       <c r="B59">
-        <v>12.51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.51</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>14.48</v>
       </c>
       <c r="B60">
-        <v>13.06</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.06</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>7.5600000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>14.82</v>
       </c>
       <c r="B61">
-        <v>12.74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.74</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>15.06</v>
       </c>
       <c r="B62">
-        <v>19.95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.95</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>15.09</v>
       </c>
       <c r="B63">
-        <v>6.82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.82</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>3.3200000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>15.15</v>
       </c>
       <c r="B64">
-        <v>17.760000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.760000000000002</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>12.260000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15.21</v>
       </c>
       <c r="B65">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>3.3600000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>15.44</v>
       </c>
       <c r="B66">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.62</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>15.54</v>
       </c>
       <c r="B67">
-        <v>9.02</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="1">B67-1.5</f>
+        <v>3.5199999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>15.68</v>
       </c>
       <c r="B68">
-        <v>15.01</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.01</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>15.68</v>
       </c>
       <c r="B69">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.3</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>15.71</v>
       </c>
       <c r="B70">
-        <v>16.190000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.190000000000001</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>10.690000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>15.74</v>
       </c>
       <c r="B71">
-        <v>19.29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.29</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>15.86</v>
       </c>
       <c r="B72">
-        <v>19.18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.18</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>15.87</v>
       </c>
       <c r="B73">
-        <v>15.08</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.08</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>16.059999999999999</v>
       </c>
       <c r="B74">
-        <v>18.170000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.170000000000002</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>12.670000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>16.149999999999999</v>
       </c>
       <c r="B75">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.93</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>17.04</v>
       </c>
       <c r="B76">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.1</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="K76">
+        <v>18.75</v>
+      </c>
+      <c r="L76">
+        <f>K76-4</f>
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>17.18</v>
       </c>
       <c r="B77">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>3.62</v>
+      </c>
+      <c r="K77">
+        <v>15.52</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ref="L77:L125" si="2">K77-4</f>
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>17.34</v>
       </c>
       <c r="B78">
-        <v>16.989999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.989999999999998</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>11.489999999999998</v>
+      </c>
+      <c r="K78">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="2"/>
+        <v>13.809999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>17.37</v>
       </c>
       <c r="B79">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.2</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+      <c r="K79">
+        <v>7.55</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="2"/>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>17.57</v>
       </c>
       <c r="B80">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.3900000000000006</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>4.8900000000000006</v>
+      </c>
+      <c r="K80">
+        <v>7.51</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="2"/>
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>17.7</v>
       </c>
       <c r="B81">
-        <v>10.34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.34</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>4.84</v>
+      </c>
+      <c r="K81">
+        <v>8.17</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="2"/>
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>17.850000000000001</v>
       </c>
       <c r="B82">
-        <v>13.92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.92</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>8.42</v>
+      </c>
+      <c r="K82">
+        <v>11</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>17.87</v>
       </c>
       <c r="B83">
-        <v>9.61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>4.1099999999999994</v>
+      </c>
+      <c r="K83">
+        <v>13.01</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="2"/>
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>14.23</v>
       </c>
       <c r="B84">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2.59</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="K84">
+        <v>14.32</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="2"/>
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>15.09</v>
       </c>
       <c r="B85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.3</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="K85">
+        <v>15.44</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="2"/>
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>15.09</v>
       </c>
       <c r="B86">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.16</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>4.66</v>
+      </c>
+      <c r="K86">
+        <v>15.24</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="2"/>
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>15.1</v>
       </c>
       <c r="B87">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.09</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>2.59</v>
+      </c>
+      <c r="K87">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="2"/>
+        <v>5.6300000000000008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>15.11</v>
       </c>
       <c r="B88">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.82</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="K88">
+        <v>15.9</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="2"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>15.11</v>
       </c>
       <c r="B89">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>10.38</v>
+      </c>
+      <c r="K89">
+        <v>12.97</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="2"/>
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>15.12</v>
       </c>
       <c r="B90">
-        <v>12.86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.86</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="K90">
+        <v>14.42</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="2"/>
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>15.13</v>
       </c>
       <c r="B91">
-        <v>8.83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.83</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>3.33</v>
+      </c>
+      <c r="K91">
+        <v>12.51</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="2"/>
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>15.14</v>
       </c>
       <c r="B92">
-        <v>19.22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.219999999999999</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>13.719999999999999</v>
+      </c>
+      <c r="K92">
+        <v>13.06</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="2"/>
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>15.15</v>
       </c>
       <c r="B93">
-        <v>15.35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.35</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>9.85</v>
+      </c>
+      <c r="K93">
+        <v>12.74</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="2"/>
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>16.239999999999998</v>
       </c>
       <c r="B94">
         <v>5.33</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>3.83</v>
+      </c>
+      <c r="K94">
+        <v>19.95</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="2"/>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>18.010000000000002</v>
       </c>
       <c r="B95">
         <v>14.31</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>12.81</v>
+      </c>
+      <c r="K95">
+        <v>6.82</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="2"/>
+        <v>2.8200000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>20.02</v>
       </c>
       <c r="B96">
         <v>15.61</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>14.11</v>
+      </c>
+      <c r="K96">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="2"/>
+        <v>13.760000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>21.08</v>
       </c>
       <c r="B97">
         <v>15.32</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>13.82</v>
+      </c>
+      <c r="K97">
+        <v>5.86</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="2"/>
+        <v>1.8600000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>21.22</v>
       </c>
       <c r="B98">
-        <v>18.84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.84</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>11.34</v>
+      </c>
+      <c r="K98">
+        <v>7.62</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="2"/>
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>23.04</v>
       </c>
       <c r="B99">
         <v>29.85</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>28.35</v>
+      </c>
+      <c r="K99">
+        <v>9.02</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="2"/>
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>24.2</v>
       </c>
       <c r="B100">
         <v>20.36</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>18.86</v>
+      </c>
+      <c r="K100">
+        <v>15.01</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="2"/>
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>25.03</v>
       </c>
       <c r="B101">
-        <v>31.93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23.93</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>22.43</v>
+      </c>
+      <c r="K101">
+        <v>15.3</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="2"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="2"/>
+        <v>12.190000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B103">
         <f>AVERAGE(B2:B102)</f>
-        <v>9.9582000000000015</v>
+        <v>7.9712000000000023</v>
+      </c>
+      <c r="K103">
+        <v>19.29</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="2"/>
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>19.18</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="2"/>
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>15.08</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="2"/>
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="2"/>
+        <v>14.170000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>6.93</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="2"/>
+        <v>2.9299999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>11.1</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="2"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>5.12</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="2"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="2"/>
+        <v>12.989999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>17.2</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="2"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>10.39</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="2"/>
+        <v>6.3900000000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>10.34</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="2"/>
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="114" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>13.92</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="2"/>
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="115" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>9.61</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="2"/>
+        <v>5.6099999999999994</v>
+      </c>
+    </row>
+    <row r="116" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>5.59</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="2"/>
+        <v>1.5899999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>7</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>7.16</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="2"/>
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="119" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>8.09</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="2"/>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="120" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>8.82</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="2"/>
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="121" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>15.88</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="2"/>
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="122" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>12.86</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="2"/>
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="123" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>8.83</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="2"/>
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="124" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>19.22</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="2"/>
+        <v>15.219999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>15.35</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="2"/>
+        <v>11.35</v>
       </c>
     </row>
   </sheetData>
